--- a/age_data.xlsx
+++ b/age_data.xlsx
@@ -546,95 +546,59 @@
           <t>2698831</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>10.1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>8.8</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
+      <c r="B2" t="n">
+        <v>188918</v>
+      </c>
+      <c r="C2" t="n">
+        <v>164628</v>
+      </c>
+      <c r="D2" t="n">
+        <v>172725</v>
+      </c>
+      <c r="E2" t="n">
+        <v>186219</v>
+      </c>
+      <c r="F2" t="n">
+        <v>221304</v>
+      </c>
+      <c r="G2" t="n">
+        <v>272581</v>
+      </c>
+      <c r="H2" t="n">
+        <v>237497</v>
+      </c>
+      <c r="I2" t="n">
+        <v>199713</v>
+      </c>
+      <c r="J2" t="n">
+        <v>175424</v>
+      </c>
+      <c r="K2" t="n">
+        <v>175424</v>
+      </c>
+      <c r="L2" t="n">
+        <v>164628</v>
+      </c>
+      <c r="M2" t="n">
+        <v>151134</v>
+      </c>
+      <c r="N2" t="n">
+        <v>118748</v>
+      </c>
+      <c r="O2" t="n">
+        <v>83663</v>
+      </c>
+      <c r="P2" t="n">
+        <v>64771</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="R2" t="n">
+        <v>37783</v>
+      </c>
+      <c r="S2" t="n">
+        <v>37783</v>
       </c>
       <c r="T2" t="n">
         <v>2010</v>
@@ -651,95 +615,59 @@
           <t>2707123</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>10.4</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
+      <c r="B3" t="n">
+        <v>189498</v>
+      </c>
+      <c r="C3" t="n">
+        <v>159720</v>
+      </c>
+      <c r="D3" t="n">
+        <v>167841</v>
+      </c>
+      <c r="E3" t="n">
+        <v>178670</v>
+      </c>
+      <c r="F3" t="n">
+        <v>221984</v>
+      </c>
+      <c r="G3" t="n">
+        <v>281540</v>
+      </c>
+      <c r="H3" t="n">
+        <v>240933</v>
+      </c>
+      <c r="I3" t="n">
+        <v>197619</v>
+      </c>
+      <c r="J3" t="n">
+        <v>184084</v>
+      </c>
+      <c r="K3" t="n">
+        <v>167841</v>
+      </c>
+      <c r="L3" t="n">
+        <v>170548</v>
+      </c>
+      <c r="M3" t="n">
+        <v>148891</v>
+      </c>
+      <c r="N3" t="n">
+        <v>124527</v>
+      </c>
+      <c r="O3" t="n">
+        <v>83920</v>
+      </c>
+      <c r="P3" t="n">
+        <v>64970</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>51435</v>
+      </c>
+      <c r="R3" t="n">
+        <v>37899</v>
+      </c>
+      <c r="S3" t="n">
+        <v>35192</v>
       </c>
       <c r="T3" t="n">
         <v>2011</v>
@@ -756,95 +684,59 @@
           <t>2714844</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>9.8</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
+      <c r="B4" t="n">
+        <v>190039</v>
+      </c>
+      <c r="C4" t="n">
+        <v>165605</v>
+      </c>
+      <c r="D4" t="n">
+        <v>157460</v>
+      </c>
+      <c r="E4" t="n">
+        <v>171035</v>
+      </c>
+      <c r="F4" t="n">
+        <v>219902</v>
+      </c>
+      <c r="G4" t="n">
+        <v>266054</v>
+      </c>
+      <c r="H4" t="n">
+        <v>241621</v>
+      </c>
+      <c r="I4" t="n">
+        <v>200898</v>
+      </c>
+      <c r="J4" t="n">
+        <v>190039</v>
+      </c>
+      <c r="K4" t="n">
+        <v>165605</v>
+      </c>
+      <c r="L4" t="n">
+        <v>168320</v>
+      </c>
+      <c r="M4" t="n">
+        <v>146601</v>
+      </c>
+      <c r="N4" t="n">
+        <v>130312</v>
+      </c>
+      <c r="O4" t="n">
+        <v>92304</v>
+      </c>
+      <c r="P4" t="n">
+        <v>70585</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>54296</v>
+      </c>
+      <c r="R4" t="n">
+        <v>38007</v>
+      </c>
+      <c r="S4" t="n">
+        <v>40722</v>
       </c>
       <c r="T4" t="n">
         <v>2012</v>
@@ -861,95 +753,59 @@
           <t>2718789</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>10.2</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
+      <c r="B5" t="n">
+        <v>179440</v>
+      </c>
+      <c r="C5" t="n">
+        <v>163127</v>
+      </c>
+      <c r="D5" t="n">
+        <v>157689</v>
+      </c>
+      <c r="E5" t="n">
+        <v>174002</v>
+      </c>
+      <c r="F5" t="n">
+        <v>214784</v>
+      </c>
+      <c r="G5" t="n">
+        <v>277316</v>
+      </c>
+      <c r="H5" t="n">
+        <v>252847</v>
+      </c>
+      <c r="I5" t="n">
+        <v>198471</v>
+      </c>
+      <c r="J5" t="n">
+        <v>182158</v>
+      </c>
+      <c r="K5" t="n">
+        <v>174002</v>
+      </c>
+      <c r="L5" t="n">
+        <v>165846</v>
+      </c>
+      <c r="M5" t="n">
+        <v>152252</v>
+      </c>
+      <c r="N5" t="n">
+        <v>133220</v>
+      </c>
+      <c r="O5" t="n">
+        <v>92438</v>
+      </c>
+      <c r="P5" t="n">
+        <v>70688</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>51656</v>
+      </c>
+      <c r="R5" t="n">
+        <v>38063</v>
+      </c>
+      <c r="S5" t="n">
+        <v>38063</v>
       </c>
       <c r="T5" t="n">
         <v>2013</v>
@@ -966,95 +822,59 @@
           <t>2722407</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>10.1</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
+      <c r="B6" t="n">
+        <v>182401</v>
+      </c>
+      <c r="C6" t="n">
+        <v>168789</v>
+      </c>
+      <c r="D6" t="n">
+        <v>155177</v>
+      </c>
+      <c r="E6" t="n">
+        <v>160622</v>
+      </c>
+      <c r="F6" t="n">
+        <v>217792</v>
+      </c>
+      <c r="G6" t="n">
+        <v>274963</v>
+      </c>
+      <c r="H6" t="n">
+        <v>250461</v>
+      </c>
+      <c r="I6" t="n">
+        <v>206902</v>
+      </c>
+      <c r="J6" t="n">
+        <v>174234</v>
+      </c>
+      <c r="K6" t="n">
+        <v>163344</v>
+      </c>
+      <c r="L6" t="n">
+        <v>166066</v>
+      </c>
+      <c r="M6" t="n">
+        <v>155177</v>
+      </c>
+      <c r="N6" t="n">
+        <v>133397</v>
+      </c>
+      <c r="O6" t="n">
+        <v>103451</v>
+      </c>
+      <c r="P6" t="n">
+        <v>73504</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>54448</v>
+      </c>
+      <c r="R6" t="n">
+        <v>40836</v>
+      </c>
+      <c r="S6" t="n">
+        <v>40836</v>
       </c>
       <c r="T6" t="n">
         <v>2014</v>
@@ -1071,95 +891,59 @@
           <t>2720556</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>10.1</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
+      <c r="B7" t="n">
+        <v>176836</v>
+      </c>
+      <c r="C7" t="n">
+        <v>160512</v>
+      </c>
+      <c r="D7" t="n">
+        <v>155071</v>
+      </c>
+      <c r="E7" t="n">
+        <v>163233</v>
+      </c>
+      <c r="F7" t="n">
+        <v>214923</v>
+      </c>
+      <c r="G7" t="n">
+        <v>274776</v>
+      </c>
+      <c r="H7" t="n">
+        <v>255732</v>
+      </c>
+      <c r="I7" t="n">
+        <v>201321</v>
+      </c>
+      <c r="J7" t="n">
+        <v>179556</v>
+      </c>
+      <c r="K7" t="n">
+        <v>165953</v>
+      </c>
+      <c r="L7" t="n">
+        <v>160512</v>
+      </c>
+      <c r="M7" t="n">
+        <v>163233</v>
+      </c>
+      <c r="N7" t="n">
+        <v>136027</v>
+      </c>
+      <c r="O7" t="n">
+        <v>106101</v>
+      </c>
+      <c r="P7" t="n">
+        <v>78896</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>51690</v>
+      </c>
+      <c r="R7" t="n">
+        <v>40808</v>
+      </c>
+      <c r="S7" t="n">
+        <v>38087</v>
       </c>
       <c r="T7" t="n">
         <v>2015</v>
@@ -1176,95 +960,59 @@
           <t>2704965</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>10.5</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
+      <c r="B8" t="n">
+        <v>173117</v>
+      </c>
+      <c r="C8" t="n">
+        <v>156887</v>
+      </c>
+      <c r="D8" t="n">
+        <v>154183</v>
+      </c>
+      <c r="E8" t="n">
+        <v>159592</v>
+      </c>
+      <c r="F8" t="n">
+        <v>208282</v>
+      </c>
+      <c r="G8" t="n">
+        <v>284021</v>
+      </c>
+      <c r="H8" t="n">
+        <v>248856</v>
+      </c>
+      <c r="I8" t="n">
+        <v>208282</v>
+      </c>
+      <c r="J8" t="n">
+        <v>173117</v>
+      </c>
+      <c r="K8" t="n">
+        <v>170412</v>
+      </c>
+      <c r="L8" t="n">
+        <v>159592</v>
+      </c>
+      <c r="M8" t="n">
+        <v>156887</v>
+      </c>
+      <c r="N8" t="n">
+        <v>137953</v>
+      </c>
+      <c r="O8" t="n">
+        <v>105493</v>
+      </c>
+      <c r="P8" t="n">
+        <v>78443</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>56804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>37869</v>
+      </c>
+      <c r="S8" t="n">
+        <v>40574</v>
       </c>
       <c r="T8" t="n">
         <v>2016</v>
@@ -1593,97 +1341,97 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8379552</t>
+          <t>2699347</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>534759</t>
+          <t>165844</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>462190</t>
+          <t>146219</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>472456</t>
+          <t>153326</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>443559</t>
+          <t>152449</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>533162</t>
+          <t>198492</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>768229</t>
+          <t>285085</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>724231</t>
+          <t>258006</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>605391</t>
+          <t>205137</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>537478</t>
+          <t>173169</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>525185</t>
+          <t>163422</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>525954</t>
+          <t>156934</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>521058</t>
+          <t>156931</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>473387</t>
+          <t>142159</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>398033</t>
+          <t>113276</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>304766</t>
+          <t>85040</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>219232</t>
+          <t>60386</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>155084</t>
+          <t>39037</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>175398</t>
+          <t>44435</t>
         </is>
       </c>
       <c r="T12" t="n">
@@ -2016,95 +1764,59 @@
           <t>2107208</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
+      <c r="B16" t="n">
+        <v>170683</v>
+      </c>
+      <c r="C16" t="n">
+        <v>151718</v>
+      </c>
+      <c r="D16" t="n">
+        <v>136968</v>
+      </c>
+      <c r="E16" t="n">
+        <v>139075</v>
+      </c>
+      <c r="F16" t="n">
+        <v>170683</v>
+      </c>
+      <c r="G16" t="n">
+        <v>198077</v>
+      </c>
+      <c r="H16" t="n">
+        <v>172791</v>
+      </c>
+      <c r="I16" t="n">
+        <v>158040</v>
+      </c>
+      <c r="J16" t="n">
+        <v>136968</v>
+      </c>
+      <c r="K16" t="n">
+        <v>136968</v>
+      </c>
+      <c r="L16" t="n">
+        <v>134861</v>
+      </c>
+      <c r="M16" t="n">
+        <v>111682</v>
+      </c>
+      <c r="N16" t="n">
+        <v>92717</v>
+      </c>
+      <c r="O16" t="n">
+        <v>63216</v>
+      </c>
+      <c r="P16" t="n">
+        <v>44251</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>31608</v>
+      </c>
+      <c r="R16" t="n">
+        <v>27393</v>
+      </c>
+      <c r="S16" t="n">
+        <v>25286</v>
       </c>
       <c r="T16" t="n">
         <v>2010</v>
@@ -2121,95 +1833,59 @@
           <t>2145933</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>4.1</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
+      <c r="B17" t="n">
+        <v>171674</v>
+      </c>
+      <c r="C17" t="n">
+        <v>156653</v>
+      </c>
+      <c r="D17" t="n">
+        <v>137339</v>
+      </c>
+      <c r="E17" t="n">
+        <v>141631</v>
+      </c>
+      <c r="F17" t="n">
+        <v>175966</v>
+      </c>
+      <c r="G17" t="n">
+        <v>197425</v>
+      </c>
+      <c r="H17" t="n">
+        <v>184550</v>
+      </c>
+      <c r="I17" t="n">
+        <v>154507</v>
+      </c>
+      <c r="J17" t="n">
+        <v>141631</v>
+      </c>
+      <c r="K17" t="n">
+        <v>141631</v>
+      </c>
+      <c r="L17" t="n">
+        <v>139485</v>
+      </c>
+      <c r="M17" t="n">
+        <v>118026</v>
+      </c>
+      <c r="N17" t="n">
+        <v>87983</v>
+      </c>
+      <c r="O17" t="n">
+        <v>60086</v>
+      </c>
+      <c r="P17" t="n">
+        <v>47210</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>34334</v>
+      </c>
+      <c r="R17" t="n">
+        <v>25751</v>
+      </c>
+      <c r="S17" t="n">
+        <v>25751</v>
       </c>
       <c r="T17" t="n">
         <v>2011</v>
@@ -2226,95 +1902,59 @@
           <t>2161686</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
+      <c r="B18" t="n">
+        <v>168611</v>
+      </c>
+      <c r="C18" t="n">
+        <v>157803</v>
+      </c>
+      <c r="D18" t="n">
+        <v>144832</v>
+      </c>
+      <c r="E18" t="n">
+        <v>138347</v>
+      </c>
+      <c r="F18" t="n">
+        <v>170773</v>
+      </c>
+      <c r="G18" t="n">
+        <v>203198</v>
+      </c>
+      <c r="H18" t="n">
+        <v>179419</v>
+      </c>
+      <c r="I18" t="n">
+        <v>157803</v>
+      </c>
+      <c r="J18" t="n">
+        <v>146994</v>
+      </c>
+      <c r="K18" t="n">
+        <v>134024</v>
+      </c>
+      <c r="L18" t="n">
+        <v>134024</v>
+      </c>
+      <c r="M18" t="n">
+        <v>121054</v>
+      </c>
+      <c r="N18" t="n">
+        <v>97275</v>
+      </c>
+      <c r="O18" t="n">
+        <v>71335</v>
+      </c>
+      <c r="P18" t="n">
+        <v>49718</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>36748</v>
+      </c>
+      <c r="R18" t="n">
+        <v>25940</v>
+      </c>
+      <c r="S18" t="n">
+        <v>23778</v>
       </c>
       <c r="T18" t="n">
         <v>2012</v>
@@ -2331,95 +1971,59 @@
           <t>2197374</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
+      <c r="B19" t="n">
+        <v>171395</v>
+      </c>
+      <c r="C19" t="n">
+        <v>156013</v>
+      </c>
+      <c r="D19" t="n">
+        <v>142829</v>
+      </c>
+      <c r="E19" t="n">
+        <v>134039</v>
+      </c>
+      <c r="F19" t="n">
+        <v>175789</v>
+      </c>
+      <c r="G19" t="n">
+        <v>204355</v>
+      </c>
+      <c r="H19" t="n">
+        <v>191171</v>
+      </c>
+      <c r="I19" t="n">
+        <v>153816</v>
+      </c>
+      <c r="J19" t="n">
+        <v>151618</v>
+      </c>
+      <c r="K19" t="n">
+        <v>136237</v>
+      </c>
+      <c r="L19" t="n">
+        <v>134039</v>
+      </c>
+      <c r="M19" t="n">
+        <v>131842</v>
+      </c>
+      <c r="N19" t="n">
+        <v>105473</v>
+      </c>
+      <c r="O19" t="n">
+        <v>72513</v>
+      </c>
+      <c r="P19" t="n">
+        <v>48342</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>35157</v>
+      </c>
+      <c r="R19" t="n">
+        <v>26368</v>
+      </c>
+      <c r="S19" t="n">
+        <v>24171</v>
       </c>
       <c r="T19" t="n">
         <v>2013</v>
@@ -2436,95 +2040,59 @@
           <t>2240796</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
+      <c r="B20" t="n">
+        <v>172541</v>
+      </c>
+      <c r="C20" t="n">
+        <v>159096</v>
+      </c>
+      <c r="D20" t="n">
+        <v>145651</v>
+      </c>
+      <c r="E20" t="n">
+        <v>136688</v>
+      </c>
+      <c r="F20" t="n">
+        <v>185986</v>
+      </c>
+      <c r="G20" t="n">
+        <v>212875</v>
+      </c>
+      <c r="H20" t="n">
+        <v>192708</v>
+      </c>
+      <c r="I20" t="n">
+        <v>163578</v>
+      </c>
+      <c r="J20" t="n">
+        <v>152374</v>
+      </c>
+      <c r="K20" t="n">
+        <v>141170</v>
+      </c>
+      <c r="L20" t="n">
+        <v>134447</v>
+      </c>
+      <c r="M20" t="n">
+        <v>125484</v>
+      </c>
+      <c r="N20" t="n">
+        <v>98595</v>
+      </c>
+      <c r="O20" t="n">
+        <v>73946</v>
+      </c>
+      <c r="P20" t="n">
+        <v>53779</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>35852</v>
+      </c>
+      <c r="R20" t="n">
+        <v>26889</v>
+      </c>
+      <c r="S20" t="n">
+        <v>26889</v>
       </c>
       <c r="T20" t="n">
         <v>2014</v>
@@ -2541,95 +2109,59 @@
           <t>2298628</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
+      <c r="B21" t="n">
+        <v>176994</v>
+      </c>
+      <c r="C21" t="n">
+        <v>170098</v>
+      </c>
+      <c r="D21" t="n">
+        <v>151709</v>
+      </c>
+      <c r="E21" t="n">
+        <v>144813</v>
+      </c>
+      <c r="F21" t="n">
+        <v>181591</v>
+      </c>
+      <c r="G21" t="n">
+        <v>213772</v>
+      </c>
+      <c r="H21" t="n">
+        <v>204577</v>
+      </c>
+      <c r="I21" t="n">
+        <v>172397</v>
+      </c>
+      <c r="J21" t="n">
+        <v>154008</v>
+      </c>
+      <c r="K21" t="n">
+        <v>140216</v>
+      </c>
+      <c r="L21" t="n">
+        <v>133320</v>
+      </c>
+      <c r="M21" t="n">
+        <v>121827</v>
+      </c>
+      <c r="N21" t="n">
+        <v>110334</v>
+      </c>
+      <c r="O21" t="n">
+        <v>78153</v>
+      </c>
+      <c r="P21" t="n">
+        <v>55167</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>36778</v>
+      </c>
+      <c r="R21" t="n">
+        <v>27583</v>
+      </c>
+      <c r="S21" t="n">
+        <v>25284</v>
       </c>
       <c r="T21" t="n">
         <v>2015</v>
@@ -2646,95 +2178,59 @@
           <t>2304388</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>9.5</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
+      <c r="B22" t="n">
+        <v>179742</v>
+      </c>
+      <c r="C22" t="n">
+        <v>165915</v>
+      </c>
+      <c r="D22" t="n">
+        <v>147480</v>
+      </c>
+      <c r="E22" t="n">
+        <v>142872</v>
+      </c>
+      <c r="F22" t="n">
+        <v>177437</v>
+      </c>
+      <c r="G22" t="n">
+        <v>218916</v>
+      </c>
+      <c r="H22" t="n">
+        <v>195872</v>
+      </c>
+      <c r="I22" t="n">
+        <v>165915</v>
+      </c>
+      <c r="J22" t="n">
+        <v>154393</v>
+      </c>
+      <c r="K22" t="n">
+        <v>140567</v>
+      </c>
+      <c r="L22" t="n">
+        <v>138263</v>
+      </c>
+      <c r="M22" t="n">
+        <v>133654</v>
+      </c>
+      <c r="N22" t="n">
+        <v>110610</v>
+      </c>
+      <c r="O22" t="n">
+        <v>82957</v>
+      </c>
+      <c r="P22" t="n">
+        <v>55305</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>39174</v>
+      </c>
+      <c r="R22" t="n">
+        <v>27652</v>
+      </c>
+      <c r="S22" t="n">
+        <v>29957</v>
       </c>
       <c r="T22" t="n">
         <v>2016</v>
@@ -3063,97 +2559,97 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8379552</t>
+          <t>2313238</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>534759</t>
+          <t>172727</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>462190</t>
+          <t>157662</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>472456</t>
+          <t>153745</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>443559</t>
+          <t>142610</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>533162</t>
+          <t>168935</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>768229</t>
+          <t>222185</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>724231</t>
+          <t>204781</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>605391</t>
+          <t>173218</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>537478</t>
+          <t>150886</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>525185</t>
+          <t>141132</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>525954</t>
+          <t>129067</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>521058</t>
+          <t>128656</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>473387</t>
+          <t>113506</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>398033</t>
+          <t>89200</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>304766</t>
+          <t>62471</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>219232</t>
+          <t>42523</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>155084</t>
+          <t>27568</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>175398</t>
+          <t>32366</t>
         </is>
       </c>
       <c r="T26" t="n">
@@ -3486,95 +2982,59 @@
           <t>3797144</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>8.4</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>8.7</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
+      <c r="B30" t="n">
+        <v>254408</v>
+      </c>
+      <c r="C30" t="n">
+        <v>239220</v>
+      </c>
+      <c r="D30" t="n">
+        <v>235422</v>
+      </c>
+      <c r="E30" t="n">
+        <v>269597</v>
+      </c>
+      <c r="F30" t="n">
+        <v>318960</v>
+      </c>
+      <c r="G30" t="n">
+        <v>330351</v>
+      </c>
+      <c r="H30" t="n">
+        <v>311365</v>
+      </c>
+      <c r="I30" t="n">
+        <v>288582</v>
+      </c>
+      <c r="J30" t="n">
+        <v>273394</v>
+      </c>
+      <c r="K30" t="n">
+        <v>258205</v>
+      </c>
+      <c r="L30" t="n">
+        <v>246814</v>
+      </c>
+      <c r="M30" t="n">
+        <v>205045</v>
+      </c>
+      <c r="N30" t="n">
+        <v>170871</v>
+      </c>
+      <c r="O30" t="n">
+        <v>121508</v>
+      </c>
+      <c r="P30" t="n">
+        <v>91131</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>68348</v>
+      </c>
+      <c r="R30" t="n">
+        <v>56957</v>
+      </c>
+      <c r="S30" t="n">
+        <v>53160</v>
       </c>
       <c r="T30" t="n">
         <v>2010</v>
@@ -3591,95 +3051,59 @@
           <t>3819708</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
+      <c r="B31" t="n">
+        <v>248281</v>
+      </c>
+      <c r="C31" t="n">
+        <v>225362</v>
+      </c>
+      <c r="D31" t="n">
+        <v>229182</v>
+      </c>
+      <c r="E31" t="n">
+        <v>271199</v>
+      </c>
+      <c r="F31" t="n">
+        <v>317035</v>
+      </c>
+      <c r="G31" t="n">
+        <v>339954</v>
+      </c>
+      <c r="H31" t="n">
+        <v>305576</v>
+      </c>
+      <c r="I31" t="n">
+        <v>278838</v>
+      </c>
+      <c r="J31" t="n">
+        <v>278838</v>
+      </c>
+      <c r="K31" t="n">
+        <v>263559</v>
+      </c>
+      <c r="L31" t="n">
+        <v>252100</v>
+      </c>
+      <c r="M31" t="n">
+        <v>221543</v>
+      </c>
+      <c r="N31" t="n">
+        <v>175706</v>
+      </c>
+      <c r="O31" t="n">
+        <v>122230</v>
+      </c>
+      <c r="P31" t="n">
+        <v>95492</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>72574</v>
+      </c>
+      <c r="R31" t="n">
+        <v>57295</v>
+      </c>
+      <c r="S31" t="n">
+        <v>64935</v>
       </c>
       <c r="T31" t="n">
         <v>2011</v>
@@ -3696,95 +3120,59 @@
           <t>3857786</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>4.7</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
+      <c r="B32" t="n">
+        <v>254613</v>
+      </c>
+      <c r="C32" t="n">
+        <v>235324</v>
+      </c>
+      <c r="D32" t="n">
+        <v>231467</v>
+      </c>
+      <c r="E32" t="n">
+        <v>258471</v>
+      </c>
+      <c r="F32" t="n">
+        <v>316338</v>
+      </c>
+      <c r="G32" t="n">
+        <v>331769</v>
+      </c>
+      <c r="H32" t="n">
+        <v>320196</v>
+      </c>
+      <c r="I32" t="n">
+        <v>281618</v>
+      </c>
+      <c r="J32" t="n">
+        <v>285476</v>
+      </c>
+      <c r="K32" t="n">
+        <v>262329</v>
+      </c>
+      <c r="L32" t="n">
+        <v>246898</v>
+      </c>
+      <c r="M32" t="n">
+        <v>223751</v>
+      </c>
+      <c r="N32" t="n">
+        <v>181315</v>
+      </c>
+      <c r="O32" t="n">
+        <v>135022</v>
+      </c>
+      <c r="P32" t="n">
+        <v>92586</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>73297</v>
+      </c>
+      <c r="R32" t="n">
+        <v>61724</v>
+      </c>
+      <c r="S32" t="n">
+        <v>61724</v>
       </c>
       <c r="T32" t="n">
         <v>2012</v>
@@ -3801,95 +3189,59 @@
           <t>3884340</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
+      <c r="B33" t="n">
+        <v>248597</v>
+      </c>
+      <c r="C33" t="n">
+        <v>236944</v>
+      </c>
+      <c r="D33" t="n">
+        <v>225291</v>
+      </c>
+      <c r="E33" t="n">
+        <v>260250</v>
+      </c>
+      <c r="F33" t="n">
+        <v>322400</v>
+      </c>
+      <c r="G33" t="n">
+        <v>345706</v>
+      </c>
+      <c r="H33" t="n">
+        <v>318515</v>
+      </c>
+      <c r="I33" t="n">
+        <v>295209</v>
+      </c>
+      <c r="J33" t="n">
+        <v>283556</v>
+      </c>
+      <c r="K33" t="n">
+        <v>264135</v>
+      </c>
+      <c r="L33" t="n">
+        <v>248597</v>
+      </c>
+      <c r="M33" t="n">
+        <v>221407</v>
+      </c>
+      <c r="N33" t="n">
+        <v>186448</v>
+      </c>
+      <c r="O33" t="n">
+        <v>139836</v>
+      </c>
+      <c r="P33" t="n">
+        <v>97108</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>69918</v>
+      </c>
+      <c r="R33" t="n">
+        <v>54380</v>
+      </c>
+      <c r="S33" t="n">
+        <v>62149</v>
       </c>
       <c r="T33" t="n">
         <v>2013</v>
@@ -3906,95 +3258,59 @@
           <t>3928827</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
+      <c r="B34" t="n">
+        <v>251444</v>
+      </c>
+      <c r="C34" t="n">
+        <v>235729</v>
+      </c>
+      <c r="D34" t="n">
+        <v>227871</v>
+      </c>
+      <c r="E34" t="n">
+        <v>251444</v>
+      </c>
+      <c r="F34" t="n">
+        <v>318234</v>
+      </c>
+      <c r="G34" t="n">
+        <v>353594</v>
+      </c>
+      <c r="H34" t="n">
+        <v>322163</v>
+      </c>
+      <c r="I34" t="n">
+        <v>294662</v>
+      </c>
+      <c r="J34" t="n">
+        <v>278946</v>
+      </c>
+      <c r="K34" t="n">
+        <v>263231</v>
+      </c>
+      <c r="L34" t="n">
+        <v>255373</v>
+      </c>
+      <c r="M34" t="n">
+        <v>223943</v>
+      </c>
+      <c r="N34" t="n">
+        <v>192512</v>
+      </c>
+      <c r="O34" t="n">
+        <v>149295</v>
+      </c>
+      <c r="P34" t="n">
+        <v>102149</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>78576</v>
+      </c>
+      <c r="R34" t="n">
+        <v>58932</v>
+      </c>
+      <c r="S34" t="n">
+        <v>66790</v>
       </c>
       <c r="T34" t="n">
         <v>2014</v>
@@ -4011,95 +3327,59 @@
           <t>3971896</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>2.6</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
+      <c r="B35" t="n">
+        <v>254201</v>
+      </c>
+      <c r="C35" t="n">
+        <v>226398</v>
+      </c>
+      <c r="D35" t="n">
+        <v>230369</v>
+      </c>
+      <c r="E35" t="n">
+        <v>254201</v>
+      </c>
+      <c r="F35" t="n">
+        <v>321723</v>
+      </c>
+      <c r="G35" t="n">
+        <v>369386</v>
+      </c>
+      <c r="H35" t="n">
+        <v>337611</v>
+      </c>
+      <c r="I35" t="n">
+        <v>285976</v>
+      </c>
+      <c r="J35" t="n">
+        <v>282004</v>
+      </c>
+      <c r="K35" t="n">
+        <v>274060</v>
+      </c>
+      <c r="L35" t="n">
+        <v>254201</v>
+      </c>
+      <c r="M35" t="n">
+        <v>226398</v>
+      </c>
+      <c r="N35" t="n">
+        <v>198594</v>
+      </c>
+      <c r="O35" t="n">
+        <v>150932</v>
+      </c>
+      <c r="P35" t="n">
+        <v>103269</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>79437</v>
+      </c>
+      <c r="R35" t="n">
+        <v>59578</v>
+      </c>
+      <c r="S35" t="n">
+        <v>63550</v>
       </c>
       <c r="T35" t="n">
         <v>2015</v>
@@ -4116,95 +3396,59 @@
           <t>3976324</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>9.3</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>8.6</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
+      <c r="B36" t="n">
+        <v>234603</v>
+      </c>
+      <c r="C36" t="n">
+        <v>238579</v>
+      </c>
+      <c r="D36" t="n">
+        <v>218697</v>
+      </c>
+      <c r="E36" t="n">
+        <v>238579</v>
+      </c>
+      <c r="F36" t="n">
+        <v>310153</v>
+      </c>
+      <c r="G36" t="n">
+        <v>369798</v>
+      </c>
+      <c r="H36" t="n">
+        <v>341963</v>
+      </c>
+      <c r="I36" t="n">
+        <v>294247</v>
+      </c>
+      <c r="J36" t="n">
+        <v>270390</v>
+      </c>
+      <c r="K36" t="n">
+        <v>278342</v>
+      </c>
+      <c r="L36" t="n">
+        <v>258461</v>
+      </c>
+      <c r="M36" t="n">
+        <v>238579</v>
+      </c>
+      <c r="N36" t="n">
+        <v>206768</v>
+      </c>
+      <c r="O36" t="n">
+        <v>155076</v>
+      </c>
+      <c r="P36" t="n">
+        <v>111337</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>83502</v>
+      </c>
+      <c r="R36" t="n">
+        <v>59644</v>
+      </c>
+      <c r="S36" t="n">
+        <v>67597</v>
       </c>
       <c r="T36" t="n">
         <v>2016</v>
@@ -4533,97 +3777,97 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>8379552</t>
+          <t>3973278</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>534759</t>
+          <t>226227</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>462190</t>
+          <t>224155</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>472456</t>
+          <t>225304</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>443559</t>
+          <t>237653</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>533162</t>
+          <t>292361</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>768229</t>
+          <t>372648</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>724231</t>
+          <t>351210</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>605391</t>
+          <t>300985</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>537478</t>
+          <t>270047</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>525185</t>
+          <t>265193</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>525954</t>
+          <t>251605</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>521058</t>
+          <t>237072</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>473387</t>
+          <t>208031</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>398033</t>
+          <t>168201</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>304766</t>
+          <t>122662</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>219232</t>
+          <t>82808</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>155084</t>
+          <t>61131</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>175398</t>
+          <t>75985</t>
         </is>
       </c>
       <c r="T40" t="n">
@@ -4956,95 +4200,59 @@
           <t>8184899</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>8.9</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
+      <c r="B44" t="n">
+        <v>515648</v>
+      </c>
+      <c r="C44" t="n">
+        <v>466539</v>
+      </c>
+      <c r="D44" t="n">
+        <v>474724</v>
+      </c>
+      <c r="E44" t="n">
+        <v>532018</v>
+      </c>
+      <c r="F44" t="n">
+        <v>646607</v>
+      </c>
+      <c r="G44" t="n">
+        <v>728456</v>
+      </c>
+      <c r="H44" t="n">
+        <v>662976</v>
+      </c>
+      <c r="I44" t="n">
+        <v>572942</v>
+      </c>
+      <c r="J44" t="n">
+        <v>581127</v>
+      </c>
+      <c r="K44" t="n">
+        <v>564758</v>
+      </c>
+      <c r="L44" t="n">
+        <v>540203</v>
+      </c>
+      <c r="M44" t="n">
+        <v>474724</v>
+      </c>
+      <c r="N44" t="n">
+        <v>417429</v>
+      </c>
+      <c r="O44" t="n">
+        <v>302841</v>
+      </c>
+      <c r="P44" t="n">
+        <v>229177</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>180067</v>
+      </c>
+      <c r="R44" t="n">
+        <v>147328</v>
+      </c>
+      <c r="S44" t="n">
+        <v>139143</v>
       </c>
       <c r="T44" t="n">
         <v>2010</v>
@@ -5061,95 +4269,59 @@
           <t>8244910</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>8.2</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>5.2</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
+      <c r="B45" t="n">
+        <v>535919</v>
+      </c>
+      <c r="C45" t="n">
+        <v>469959</v>
+      </c>
+      <c r="D45" t="n">
+        <v>469959</v>
+      </c>
+      <c r="E45" t="n">
+        <v>511184</v>
+      </c>
+      <c r="F45" t="n">
+        <v>643102</v>
+      </c>
+      <c r="G45" t="n">
+        <v>742041</v>
+      </c>
+      <c r="H45" t="n">
+        <v>676082</v>
+      </c>
+      <c r="I45" t="n">
+        <v>585388</v>
+      </c>
+      <c r="J45" t="n">
+        <v>568898</v>
+      </c>
+      <c r="K45" t="n">
+        <v>560653</v>
+      </c>
+      <c r="L45" t="n">
+        <v>544164</v>
+      </c>
+      <c r="M45" t="n">
+        <v>494694</v>
+      </c>
+      <c r="N45" t="n">
+        <v>428735</v>
+      </c>
+      <c r="O45" t="n">
+        <v>305061</v>
+      </c>
+      <c r="P45" t="n">
+        <v>239102</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>181388</v>
+      </c>
+      <c r="R45" t="n">
+        <v>148408</v>
+      </c>
+      <c r="S45" t="n">
+        <v>140163</v>
       </c>
       <c r="T45" t="n">
         <v>2011</v>
@@ -5166,95 +4338,59 @@
           <t>8336697</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>3.9</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
+      <c r="B46" t="n">
+        <v>541885</v>
+      </c>
+      <c r="C46" t="n">
+        <v>475191</v>
+      </c>
+      <c r="D46" t="n">
+        <v>466855</v>
+      </c>
+      <c r="E46" t="n">
+        <v>500201</v>
+      </c>
+      <c r="F46" t="n">
+        <v>641925</v>
+      </c>
+      <c r="G46" t="n">
+        <v>758639</v>
+      </c>
+      <c r="H46" t="n">
+        <v>691945</v>
+      </c>
+      <c r="I46" t="n">
+        <v>591905</v>
+      </c>
+      <c r="J46" t="n">
+        <v>575232</v>
+      </c>
+      <c r="K46" t="n">
+        <v>558558</v>
+      </c>
+      <c r="L46" t="n">
+        <v>550222</v>
+      </c>
+      <c r="M46" t="n">
+        <v>491865</v>
+      </c>
+      <c r="N46" t="n">
+        <v>441844</v>
+      </c>
+      <c r="O46" t="n">
+        <v>325131</v>
+      </c>
+      <c r="P46" t="n">
+        <v>250100</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>183407</v>
+      </c>
+      <c r="R46" t="n">
+        <v>141723</v>
+      </c>
+      <c r="S46" t="n">
+        <v>150060</v>
       </c>
       <c r="T46" t="n">
         <v>2012</v>
@@ -5271,95 +4407,59 @@
           <t>8405837</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>9.1</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
+      <c r="B47" t="n">
+        <v>554785</v>
+      </c>
+      <c r="C47" t="n">
+        <v>479132</v>
+      </c>
+      <c r="D47" t="n">
+        <v>462321</v>
+      </c>
+      <c r="E47" t="n">
+        <v>479132</v>
+      </c>
+      <c r="F47" t="n">
+        <v>630437</v>
+      </c>
+      <c r="G47" t="n">
+        <v>764931</v>
+      </c>
+      <c r="H47" t="n">
+        <v>714496</v>
+      </c>
+      <c r="I47" t="n">
+        <v>596814</v>
+      </c>
+      <c r="J47" t="n">
+        <v>571596</v>
+      </c>
+      <c r="K47" t="n">
+        <v>554785</v>
+      </c>
+      <c r="L47" t="n">
+        <v>554785</v>
+      </c>
+      <c r="M47" t="n">
+        <v>504350</v>
+      </c>
+      <c r="N47" t="n">
+        <v>445509</v>
+      </c>
+      <c r="O47" t="n">
+        <v>336233</v>
+      </c>
+      <c r="P47" t="n">
+        <v>252175</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>184928</v>
+      </c>
+      <c r="R47" t="n">
+        <v>142899</v>
+      </c>
+      <c r="S47" t="n">
+        <v>159710</v>
       </c>
       <c r="T47" t="n">
         <v>2013</v>
@@ -5376,95 +4476,59 @@
           <t>8491079</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>5.8</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>4.2</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
+      <c r="B48" t="n">
+        <v>568902</v>
+      </c>
+      <c r="C48" t="n">
+        <v>492482</v>
+      </c>
+      <c r="D48" t="n">
+        <v>458518</v>
+      </c>
+      <c r="E48" t="n">
+        <v>475500</v>
+      </c>
+      <c r="F48" t="n">
+        <v>628339</v>
+      </c>
+      <c r="G48" t="n">
+        <v>781179</v>
+      </c>
+      <c r="H48" t="n">
+        <v>721741</v>
+      </c>
+      <c r="I48" t="n">
+        <v>611357</v>
+      </c>
+      <c r="J48" t="n">
+        <v>568902</v>
+      </c>
+      <c r="K48" t="n">
+        <v>560411</v>
+      </c>
+      <c r="L48" t="n">
+        <v>560411</v>
+      </c>
+      <c r="M48" t="n">
+        <v>517955</v>
+      </c>
+      <c r="N48" t="n">
+        <v>450027</v>
+      </c>
+      <c r="O48" t="n">
+        <v>356625</v>
+      </c>
+      <c r="P48" t="n">
+        <v>254732</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>186803</v>
+      </c>
+      <c r="R48" t="n">
+        <v>135857</v>
+      </c>
+      <c r="S48" t="n">
+        <v>161330</v>
       </c>
       <c r="T48" t="n">
         <v>2014</v>
@@ -5481,95 +4545,59 @@
           <t>8550405</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>6.1</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>4.4</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
+      <c r="B49" t="n">
+        <v>572877</v>
+      </c>
+      <c r="C49" t="n">
+        <v>478822</v>
+      </c>
+      <c r="D49" t="n">
+        <v>470272</v>
+      </c>
+      <c r="E49" t="n">
+        <v>470272</v>
+      </c>
+      <c r="F49" t="n">
+        <v>607078</v>
+      </c>
+      <c r="G49" t="n">
+        <v>803738</v>
+      </c>
+      <c r="H49" t="n">
+        <v>726784</v>
+      </c>
+      <c r="I49" t="n">
+        <v>624179</v>
+      </c>
+      <c r="J49" t="n">
+        <v>555776</v>
+      </c>
+      <c r="K49" t="n">
+        <v>555776</v>
+      </c>
+      <c r="L49" t="n">
+        <v>564326</v>
+      </c>
+      <c r="M49" t="n">
+        <v>521574</v>
+      </c>
+      <c r="N49" t="n">
+        <v>461721</v>
+      </c>
+      <c r="O49" t="n">
+        <v>376217</v>
+      </c>
+      <c r="P49" t="n">
+        <v>256512</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>196659</v>
+      </c>
+      <c r="R49" t="n">
+        <v>136806</v>
+      </c>
+      <c r="S49" t="n">
+        <v>153907</v>
       </c>
       <c r="T49" t="n">
         <v>2015</v>
@@ -5586,95 +4614,59 @@
           <t>8537673</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>5.9</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>9.4</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>8.5</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>1.7</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
+      <c r="B50" t="n">
+        <v>554948</v>
+      </c>
+      <c r="C50" t="n">
+        <v>503722</v>
+      </c>
+      <c r="D50" t="n">
+        <v>461034</v>
+      </c>
+      <c r="E50" t="n">
+        <v>469572</v>
+      </c>
+      <c r="F50" t="n">
+        <v>589099</v>
+      </c>
+      <c r="G50" t="n">
+        <v>802541</v>
+      </c>
+      <c r="H50" t="n">
+        <v>725702</v>
+      </c>
+      <c r="I50" t="n">
+        <v>631787</v>
+      </c>
+      <c r="J50" t="n">
+        <v>546411</v>
+      </c>
+      <c r="K50" t="n">
+        <v>554948</v>
+      </c>
+      <c r="L50" t="n">
+        <v>554948</v>
+      </c>
+      <c r="M50" t="n">
+        <v>512260</v>
+      </c>
+      <c r="N50" t="n">
+        <v>478109</v>
+      </c>
+      <c r="O50" t="n">
+        <v>384195</v>
+      </c>
+      <c r="P50" t="n">
+        <v>273205</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>196366</v>
+      </c>
+      <c r="R50" t="n">
+        <v>145140</v>
+      </c>
+      <c r="S50" t="n">
+        <v>162215</v>
       </c>
       <c r="T50" t="n">
         <v>2016</v>
@@ -6426,95 +5418,59 @@
           <t>1449481</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>8.3</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>5.1</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>3.1</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
+      <c r="B58" t="n">
+        <v>111610</v>
+      </c>
+      <c r="C58" t="n">
+        <v>108711</v>
+      </c>
+      <c r="D58" t="n">
+        <v>120306</v>
+      </c>
+      <c r="E58" t="n">
+        <v>104362</v>
+      </c>
+      <c r="F58" t="n">
+        <v>105812</v>
+      </c>
+      <c r="G58" t="n">
+        <v>117407</v>
+      </c>
+      <c r="H58" t="n">
+        <v>114508</v>
+      </c>
+      <c r="I58" t="n">
+        <v>105812</v>
+      </c>
+      <c r="J58" t="n">
+        <v>104362</v>
+      </c>
+      <c r="K58" t="n">
+        <v>97115</v>
+      </c>
+      <c r="L58" t="n">
+        <v>91317</v>
+      </c>
+      <c r="M58" t="n">
+        <v>73923</v>
+      </c>
+      <c r="N58" t="n">
+        <v>66676</v>
+      </c>
+      <c r="O58" t="n">
+        <v>44933</v>
+      </c>
+      <c r="P58" t="n">
+        <v>28989</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>21742</v>
+      </c>
+      <c r="R58" t="n">
+        <v>15944</v>
+      </c>
+      <c r="S58" t="n">
+        <v>14494</v>
       </c>
       <c r="T58" t="n">
         <v>2010</v>
@@ -6531,95 +5487,59 @@
           <t>1469484</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>2.8</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
+      <c r="B59" t="n">
+        <v>116089</v>
+      </c>
+      <c r="C59" t="n">
+        <v>107272</v>
+      </c>
+      <c r="D59" t="n">
+        <v>111680</v>
+      </c>
+      <c r="E59" t="n">
+        <v>110211</v>
+      </c>
+      <c r="F59" t="n">
+        <v>116089</v>
+      </c>
+      <c r="G59" t="n">
+        <v>114619</v>
+      </c>
+      <c r="H59" t="n">
+        <v>104333</v>
+      </c>
+      <c r="I59" t="n">
+        <v>102863</v>
+      </c>
+      <c r="J59" t="n">
+        <v>108741</v>
+      </c>
+      <c r="K59" t="n">
+        <v>107272</v>
+      </c>
+      <c r="L59" t="n">
+        <v>94046</v>
+      </c>
+      <c r="M59" t="n">
+        <v>82291</v>
+      </c>
+      <c r="N59" t="n">
+        <v>66126</v>
+      </c>
+      <c r="O59" t="n">
+        <v>41145</v>
+      </c>
+      <c r="P59" t="n">
+        <v>29389</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>22042</v>
+      </c>
+      <c r="R59" t="n">
+        <v>16164</v>
+      </c>
+      <c r="S59" t="n">
+        <v>16164</v>
       </c>
       <c r="T59" t="n">
         <v>2011</v>
@@ -6636,95 +5556,59 @@
           <t>1488759</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>6.9</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>6.3</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>3.3</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
+      <c r="B60" t="n">
+        <v>117611</v>
+      </c>
+      <c r="C60" t="n">
+        <v>114634</v>
+      </c>
+      <c r="D60" t="n">
+        <v>108679</v>
+      </c>
+      <c r="E60" t="n">
+        <v>104213</v>
+      </c>
+      <c r="F60" t="n">
+        <v>116123</v>
+      </c>
+      <c r="G60" t="n">
+        <v>116123</v>
+      </c>
+      <c r="H60" t="n">
+        <v>113145</v>
+      </c>
+      <c r="I60" t="n">
+        <v>102724</v>
+      </c>
+      <c r="J60" t="n">
+        <v>113145</v>
+      </c>
+      <c r="K60" t="n">
+        <v>102724</v>
+      </c>
+      <c r="L60" t="n">
+        <v>93791</v>
+      </c>
+      <c r="M60" t="n">
+        <v>83370</v>
+      </c>
+      <c r="N60" t="n">
+        <v>66994</v>
+      </c>
+      <c r="O60" t="n">
+        <v>49129</v>
+      </c>
+      <c r="P60" t="n">
+        <v>31263</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>22331</v>
+      </c>
+      <c r="R60" t="n">
+        <v>17865</v>
+      </c>
+      <c r="S60" t="n">
+        <v>16376</v>
       </c>
       <c r="T60" t="n">
         <v>2012</v>
@@ -6741,95 +5625,59 @@
           <t>1513350</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>8.1</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>3.4</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
+      <c r="B61" t="n">
+        <v>111987</v>
+      </c>
+      <c r="C61" t="n">
+        <v>119554</v>
+      </c>
+      <c r="D61" t="n">
+        <v>110474</v>
+      </c>
+      <c r="E61" t="n">
+        <v>101394</v>
+      </c>
+      <c r="F61" t="n">
+        <v>121068</v>
+      </c>
+      <c r="G61" t="n">
+        <v>122581</v>
+      </c>
+      <c r="H61" t="n">
+        <v>121068</v>
+      </c>
+      <c r="I61" t="n">
+        <v>98367</v>
+      </c>
+      <c r="J61" t="n">
+        <v>108961</v>
+      </c>
+      <c r="K61" t="n">
+        <v>101394</v>
+      </c>
+      <c r="L61" t="n">
+        <v>102907</v>
+      </c>
+      <c r="M61" t="n">
+        <v>86260</v>
+      </c>
+      <c r="N61" t="n">
+        <v>69614</v>
+      </c>
+      <c r="O61" t="n">
+        <v>51453</v>
+      </c>
+      <c r="P61" t="n">
+        <v>33293</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>21186</v>
+      </c>
+      <c r="R61" t="n">
+        <v>15133</v>
+      </c>
+      <c r="S61" t="n">
+        <v>16646</v>
       </c>
       <c r="T61" t="n">
         <v>2013</v>
@@ -6846,95 +5694,59 @@
           <t>1537045</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>6.8</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>5.4</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>4.8</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>3.6</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>2.4</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>1.5</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
+      <c r="B62" t="n">
+        <v>115278</v>
+      </c>
+      <c r="C62" t="n">
+        <v>119889</v>
+      </c>
+      <c r="D62" t="n">
+        <v>112204</v>
+      </c>
+      <c r="E62" t="n">
+        <v>109130</v>
+      </c>
+      <c r="F62" t="n">
+        <v>112204</v>
+      </c>
+      <c r="G62" t="n">
+        <v>122963</v>
+      </c>
+      <c r="H62" t="n">
+        <v>118352</v>
+      </c>
+      <c r="I62" t="n">
+        <v>104519</v>
+      </c>
+      <c r="J62" t="n">
+        <v>112204</v>
+      </c>
+      <c r="K62" t="n">
+        <v>101444</v>
+      </c>
+      <c r="L62" t="n">
+        <v>101444</v>
+      </c>
+      <c r="M62" t="n">
+        <v>83000</v>
+      </c>
+      <c r="N62" t="n">
+        <v>73778</v>
+      </c>
+      <c r="O62" t="n">
+        <v>55333</v>
+      </c>
+      <c r="P62" t="n">
+        <v>36889</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>23055</v>
+      </c>
+      <c r="R62" t="n">
+        <v>16907</v>
+      </c>
+      <c r="S62" t="n">
+        <v>16907</v>
       </c>
       <c r="T62" t="n">
         <v>2014</v>
@@ -6951,95 +5763,59 @@
           <t>1563001</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>7.7</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>7.9</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>6.7</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>6.4</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>1.9</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
+      <c r="B63" t="n">
+        <v>112536</v>
+      </c>
+      <c r="C63" t="n">
+        <v>115662</v>
+      </c>
+      <c r="D63" t="n">
+        <v>115662</v>
+      </c>
+      <c r="E63" t="n">
+        <v>104721</v>
+      </c>
+      <c r="F63" t="n">
+        <v>117225</v>
+      </c>
+      <c r="G63" t="n">
+        <v>120351</v>
+      </c>
+      <c r="H63" t="n">
+        <v>123477</v>
+      </c>
+      <c r="I63" t="n">
+        <v>118788</v>
+      </c>
+      <c r="J63" t="n">
+        <v>104721</v>
+      </c>
+      <c r="K63" t="n">
+        <v>101595</v>
+      </c>
+      <c r="L63" t="n">
+        <v>100032</v>
+      </c>
+      <c r="M63" t="n">
+        <v>89091</v>
+      </c>
+      <c r="N63" t="n">
+        <v>76587</v>
+      </c>
+      <c r="O63" t="n">
+        <v>57831</v>
+      </c>
+      <c r="P63" t="n">
+        <v>39075</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>29697</v>
+      </c>
+      <c r="R63" t="n">
+        <v>15630</v>
+      </c>
+      <c r="S63" t="n">
+        <v>20319</v>
       </c>
       <c r="T63" t="n">
         <v>2015</v>
@@ -7056,95 +5832,59 @@
           <t>1615041</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>7.6</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>7.8</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>7.1</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>7.2</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>8.0</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>7.3</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>6.5</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>6.2</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>5.6</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>3.7</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>2.7</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>1.8</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
+      <c r="B64" t="n">
+        <v>122743</v>
+      </c>
+      <c r="C64" t="n">
+        <v>125973</v>
+      </c>
+      <c r="D64" t="n">
+        <v>114667</v>
+      </c>
+      <c r="E64" t="n">
+        <v>116282</v>
+      </c>
+      <c r="F64" t="n">
+        <v>116282</v>
+      </c>
+      <c r="G64" t="n">
+        <v>129203</v>
+      </c>
+      <c r="H64" t="n">
+        <v>121128</v>
+      </c>
+      <c r="I64" t="n">
+        <v>117897</v>
+      </c>
+      <c r="J64" t="n">
+        <v>104977</v>
+      </c>
+      <c r="K64" t="n">
+        <v>104977</v>
+      </c>
+      <c r="L64" t="n">
+        <v>100132</v>
+      </c>
+      <c r="M64" t="n">
+        <v>90442</v>
+      </c>
+      <c r="N64" t="n">
+        <v>80752</v>
+      </c>
+      <c r="O64" t="n">
+        <v>59756</v>
+      </c>
+      <c r="P64" t="n">
+        <v>43606</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>29070</v>
+      </c>
+      <c r="R64" t="n">
+        <v>16150</v>
+      </c>
+      <c r="S64" t="n">
+        <v>19380</v>
       </c>
       <c r="T64" t="n">
         <v>2016</v>
@@ -7473,97 +6213,97 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>8379552</t>
+          <t>1658422</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>534759</t>
+          <t>116706</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>462190</t>
+          <t>116776</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>472456</t>
+          <t>121354</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>443559</t>
+          <t>115932</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>533162</t>
+          <t>117571</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>768229</t>
+          <t>136466</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>724231</t>
+          <t>132157</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>605391</t>
+          <t>117126</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>537478</t>
+          <t>112729</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>525185</t>
+          <t>108079</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>525954</t>
+          <t>101069</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>521058</t>
+          <t>96681</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>473387</t>
+          <t>83774</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>398033</t>
+          <t>63886</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>304766</t>
+          <t>48184</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>219232</t>
+          <t>30404</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>155084</t>
+          <t>18523</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>175398</t>
+          <t>21005</t>
         </is>
       </c>
       <c r="T68" t="n">

--- a/age_data.xlsx
+++ b/age_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,10 +531,15 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
+          <t>Median Age</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>City</t>
         </is>
@@ -600,10 +605,15 @@
       <c r="S2" t="n">
         <v>37783</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>32.8</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
         <v>2010</v>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
@@ -669,10 +679,15 @@
       <c r="S3" t="n">
         <v>35192</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
         <v>2011</v>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
@@ -738,10 +753,15 @@
       <c r="S4" t="n">
         <v>40722</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>33.6</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
         <v>2012</v>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
@@ -807,10 +827,15 @@
       <c r="S5" t="n">
         <v>38063</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>33.7</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
         <v>2013</v>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
@@ -876,10 +901,15 @@
       <c r="S6" t="n">
         <v>40836</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>33.9</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
         <v>2014</v>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
@@ -945,10 +975,15 @@
       <c r="S7" t="n">
         <v>38087</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>34.2</t>
+        </is>
+      </c>
+      <c r="U7" t="n">
         <v>2015</v>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
@@ -1014,10 +1049,15 @@
       <c r="S8" t="n">
         <v>40574</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>34.4</t>
+        </is>
+      </c>
+      <c r="U8" t="n">
         <v>2016</v>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
@@ -1119,10 +1159,15 @@
           <t>37160</t>
         </is>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>34.6</t>
+        </is>
+      </c>
+      <c r="U9" t="n">
         <v>2017</v>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
@@ -1224,10 +1269,15 @@
           <t>41608</t>
         </is>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>34.9</t>
+        </is>
+      </c>
+      <c r="U10" t="n">
         <v>2018</v>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
@@ -1329,10 +1379,15 @@
           <t>47259</t>
         </is>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>35.2</t>
+        </is>
+      </c>
+      <c r="U11" t="n">
         <v>2019</v>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
@@ -1434,10 +1489,15 @@
           <t>44435</t>
         </is>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>34.8</t>
+        </is>
+      </c>
+      <c r="U12" t="n">
         <v>2020</v>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
@@ -1539,10 +1599,15 @@
           <t>39649</t>
         </is>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>35.8</t>
+        </is>
+      </c>
+      <c r="U13" t="n">
         <v>2021</v>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
@@ -1644,10 +1709,15 @@
           <t>44150</t>
         </is>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>35.8</t>
+        </is>
+      </c>
+      <c r="U14" t="n">
         <v>2022</v>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
@@ -1749,10 +1819,15 @@
           <t>43949</t>
         </is>
       </c>
-      <c r="T15" t="n">
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>36.4</t>
+        </is>
+      </c>
+      <c r="U15" t="n">
         <v>2023</v>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
@@ -1818,10 +1893,15 @@
       <c r="S16" t="n">
         <v>25286</v>
       </c>
-      <c r="T16" t="n">
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>32.2</t>
+        </is>
+      </c>
+      <c r="U16" t="n">
         <v>2010</v>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
@@ -1887,10 +1967,15 @@
       <c r="S17" t="n">
         <v>25751</v>
       </c>
-      <c r="T17" t="n">
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>32.2</t>
+        </is>
+      </c>
+      <c r="U17" t="n">
         <v>2011</v>
       </c>
-      <c r="U17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
@@ -1956,10 +2041,15 @@
       <c r="S18" t="n">
         <v>23778</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>32.5</t>
+        </is>
+      </c>
+      <c r="U18" t="n">
         <v>2012</v>
       </c>
-      <c r="U18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
@@ -2025,10 +2115,15 @@
       <c r="S19" t="n">
         <v>24171</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>32.7</t>
+        </is>
+      </c>
+      <c r="U19" t="n">
         <v>2013</v>
       </c>
-      <c r="U19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
@@ -2094,10 +2189,15 @@
       <c r="S20" t="n">
         <v>26889</v>
       </c>
-      <c r="T20" t="n">
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>32.7</t>
+        </is>
+      </c>
+      <c r="U20" t="n">
         <v>2014</v>
       </c>
-      <c r="U20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
@@ -2163,10 +2263,15 @@
       <c r="S21" t="n">
         <v>25284</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>32.6</t>
+        </is>
+      </c>
+      <c r="U21" t="n">
         <v>2015</v>
       </c>
-      <c r="U21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
@@ -2232,10 +2337,15 @@
       <c r="S22" t="n">
         <v>29957</v>
       </c>
-      <c r="T22" t="n">
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="U22" t="n">
         <v>2016</v>
       </c>
-      <c r="U22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
@@ -2337,10 +2447,15 @@
           <t>28784</t>
         </is>
       </c>
-      <c r="T23" t="n">
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>33.1</t>
+        </is>
+      </c>
+      <c r="U23" t="n">
         <v>2017</v>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
@@ -2442,10 +2557,15 @@
           <t>30713</t>
         </is>
       </c>
-      <c r="T24" t="n">
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>33.1</t>
+        </is>
+      </c>
+      <c r="U24" t="n">
         <v>2018</v>
       </c>
-      <c r="U24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
@@ -2547,10 +2667,15 @@
           <t>27899</t>
         </is>
       </c>
-      <c r="T25" t="n">
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>33.4</t>
+        </is>
+      </c>
+      <c r="U25" t="n">
         <v>2019</v>
       </c>
-      <c r="U25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
@@ -2652,10 +2777,15 @@
           <t>32366</t>
         </is>
       </c>
-      <c r="T26" t="n">
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>33.3</t>
+        </is>
+      </c>
+      <c r="U26" t="n">
         <v>2020</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
@@ -2757,10 +2887,15 @@
           <t>29698</t>
         </is>
       </c>
-      <c r="T27" t="n">
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>34.8</t>
+        </is>
+      </c>
+      <c r="U27" t="n">
         <v>2021</v>
       </c>
-      <c r="U27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
@@ -2862,10 +2997,15 @@
           <t>31600</t>
         </is>
       </c>
-      <c r="T28" t="n">
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>34.6</t>
+        </is>
+      </c>
+      <c r="U28" t="n">
         <v>2022</v>
       </c>
-      <c r="U28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
@@ -2967,10 +3107,15 @@
           <t>28351</t>
         </is>
       </c>
-      <c r="T29" t="n">
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>34.5</t>
+        </is>
+      </c>
+      <c r="U29" t="n">
         <v>2023</v>
       </c>
-      <c r="U29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
@@ -3036,10 +3181,15 @@
       <c r="S30" t="n">
         <v>53160</v>
       </c>
-      <c r="T30" t="n">
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="U30" t="n">
         <v>2010</v>
       </c>
-      <c r="U30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
@@ -3105,10 +3255,15 @@
       <c r="S31" t="n">
         <v>64935</v>
       </c>
-      <c r="T31" t="n">
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>34.4</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
         <v>2011</v>
       </c>
-      <c r="U31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
@@ -3174,10 +3329,15 @@
       <c r="S32" t="n">
         <v>61724</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>34.7</t>
+        </is>
+      </c>
+      <c r="U32" t="n">
         <v>2012</v>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
@@ -3243,10 +3403,15 @@
       <c r="S33" t="n">
         <v>62149</v>
       </c>
-      <c r="T33" t="n">
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>34.7</t>
+        </is>
+      </c>
+      <c r="U33" t="n">
         <v>2013</v>
       </c>
-      <c r="U33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
@@ -3312,10 +3477,15 @@
       <c r="S34" t="n">
         <v>66790</v>
       </c>
-      <c r="T34" t="n">
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
         <v>2014</v>
       </c>
-      <c r="U34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
@@ -3381,10 +3551,15 @@
       <c r="S35" t="n">
         <v>63550</v>
       </c>
-      <c r="T35" t="n">
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="U35" t="n">
         <v>2015</v>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
@@ -3450,10 +3625,15 @@
       <c r="S36" t="n">
         <v>67597</v>
       </c>
-      <c r="T36" t="n">
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>35.6</t>
+        </is>
+      </c>
+      <c r="U36" t="n">
         <v>2016</v>
       </c>
-      <c r="U36" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
@@ -3555,10 +3735,15 @@
           <t>73855</t>
         </is>
       </c>
-      <c r="T37" t="n">
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>35.8</t>
+        </is>
+      </c>
+      <c r="U37" t="n">
         <v>2017</v>
       </c>
-      <c r="U37" t="inlineStr">
+      <c r="V37" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
@@ -3660,10 +3845,15 @@
           <t>69755</t>
         </is>
       </c>
-      <c r="T38" t="n">
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>35.8</t>
+        </is>
+      </c>
+      <c r="U38" t="n">
         <v>2018</v>
       </c>
-      <c r="U38" t="inlineStr">
+      <c r="V38" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
@@ -3765,10 +3955,15 @@
           <t>73179</t>
         </is>
       </c>
-      <c r="T39" t="n">
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>35.9</t>
+        </is>
+      </c>
+      <c r="U39" t="n">
         <v>2019</v>
       </c>
-      <c r="U39" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
@@ -3870,10 +4065,15 @@
           <t>75985</t>
         </is>
       </c>
-      <c r="T40" t="n">
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>35.9</t>
+        </is>
+      </c>
+      <c r="U40" t="n">
         <v>2020</v>
       </c>
-      <c r="U40" t="inlineStr">
+      <c r="V40" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
@@ -3975,10 +4175,15 @@
           <t>61704</t>
         </is>
       </c>
-      <c r="T41" t="n">
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="U41" t="n">
         <v>2021</v>
       </c>
-      <c r="U41" t="inlineStr">
+      <c r="V41" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
@@ -4080,10 +4285,15 @@
           <t>71422</t>
         </is>
       </c>
-      <c r="T42" t="n">
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>37.1</t>
+        </is>
+      </c>
+      <c r="U42" t="n">
         <v>2022</v>
       </c>
-      <c r="U42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
@@ -4185,10 +4395,15 @@
           <t>68533</t>
         </is>
       </c>
-      <c r="T43" t="n">
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
+      <c r="U43" t="n">
         <v>2023</v>
       </c>
-      <c r="U43" t="inlineStr">
+      <c r="V43" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
@@ -4254,10 +4469,15 @@
       <c r="S44" t="n">
         <v>139143</v>
       </c>
-      <c r="T44" t="n">
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>35.5</t>
+        </is>
+      </c>
+      <c r="U44" t="n">
         <v>2010</v>
       </c>
-      <c r="U44" t="inlineStr">
+      <c r="V44" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
@@ -4323,10 +4543,15 @@
       <c r="S45" t="n">
         <v>140163</v>
       </c>
-      <c r="T45" t="n">
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>35.5</t>
+        </is>
+      </c>
+      <c r="U45" t="n">
         <v>2011</v>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="V45" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
@@ -4392,10 +4617,15 @@
       <c r="S46" t="n">
         <v>150060</v>
       </c>
-      <c r="T46" t="n">
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>35.6</t>
+        </is>
+      </c>
+      <c r="U46" t="n">
         <v>2012</v>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="V46" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
@@ -4461,10 +4691,15 @@
       <c r="S47" t="n">
         <v>159710</v>
       </c>
-      <c r="T47" t="n">
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>35.8</t>
+        </is>
+      </c>
+      <c r="U47" t="n">
         <v>2013</v>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="V47" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
@@ -4530,10 +4765,15 @@
       <c r="S48" t="n">
         <v>161330</v>
       </c>
-      <c r="T48" t="n">
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>35.8</t>
+        </is>
+      </c>
+      <c r="U48" t="n">
         <v>2014</v>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
@@ -4599,10 +4839,15 @@
       <c r="S49" t="n">
         <v>153907</v>
       </c>
-      <c r="T49" t="n">
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="U49" t="n">
         <v>2015</v>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
@@ -4668,10 +4913,15 @@
       <c r="S50" t="n">
         <v>162215</v>
       </c>
-      <c r="T50" t="n">
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
+      <c r="U50" t="n">
         <v>2016</v>
       </c>
-      <c r="U50" t="inlineStr">
+      <c r="V50" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
@@ -4773,10 +5023,15 @@
           <t>168601</t>
         </is>
       </c>
-      <c r="T51" t="n">
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>36.6</t>
+        </is>
+      </c>
+      <c r="U51" t="n">
         <v>2017</v>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="V51" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
@@ -4878,10 +5133,15 @@
           <t>160367</t>
         </is>
       </c>
-      <c r="T52" t="n">
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="U52" t="n">
         <v>2018</v>
       </c>
-      <c r="U52" t="inlineStr">
+      <c r="V52" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
@@ -4983,10 +5243,15 @@
           <t>170311</t>
         </is>
       </c>
-      <c r="T53" t="n">
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>37.2</t>
+        </is>
+      </c>
+      <c r="U53" t="n">
         <v>2019</v>
       </c>
-      <c r="U53" t="inlineStr">
+      <c r="V53" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
@@ -5088,10 +5353,15 @@
           <t>175398</t>
         </is>
       </c>
-      <c r="T54" t="n">
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>36.9</t>
+        </is>
+      </c>
+      <c r="U54" t="n">
         <v>2020</v>
       </c>
-      <c r="U54" t="inlineStr">
+      <c r="V54" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
@@ -5193,10 +5463,15 @@
           <t>166751</t>
         </is>
       </c>
-      <c r="T55" t="n">
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>38.1</t>
+        </is>
+      </c>
+      <c r="U55" t="n">
         <v>2021</v>
       </c>
-      <c r="U55" t="inlineStr">
+      <c r="V55" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
@@ -5298,10 +5573,15 @@
           <t>169332</t>
         </is>
       </c>
-      <c r="T56" t="n">
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>38.4</t>
+        </is>
+      </c>
+      <c r="U56" t="n">
         <v>2022</v>
       </c>
-      <c r="U56" t="inlineStr">
+      <c r="V56" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
@@ -5403,10 +5683,15 @@
           <t>169526</t>
         </is>
       </c>
-      <c r="T57" t="n">
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>38.8</t>
+        </is>
+      </c>
+      <c r="U57" t="n">
         <v>2023</v>
       </c>
-      <c r="U57" t="inlineStr">
+      <c r="V57" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
@@ -5472,10 +5757,15 @@
       <c r="S58" t="n">
         <v>14494</v>
       </c>
-      <c r="T58" t="n">
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>32.4</t>
+        </is>
+      </c>
+      <c r="U58" t="n">
         <v>2010</v>
       </c>
-      <c r="U58" t="inlineStr">
+      <c r="V58" t="inlineStr">
         <is>
           <t>Phoenix</t>
         </is>
@@ -5541,10 +5831,15 @@
       <c r="S59" t="n">
         <v>16164</v>
       </c>
-      <c r="T59" t="n">
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>32.8</t>
+        </is>
+      </c>
+      <c r="U59" t="n">
         <v>2011</v>
       </c>
-      <c r="U59" t="inlineStr">
+      <c r="V59" t="inlineStr">
         <is>
           <t>Phoenix</t>
         </is>
@@ -5610,10 +5905,15 @@
       <c r="S60" t="n">
         <v>16376</v>
       </c>
-      <c r="T60" t="n">
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>32.9</t>
+        </is>
+      </c>
+      <c r="U60" t="n">
         <v>2012</v>
       </c>
-      <c r="U60" t="inlineStr">
+      <c r="V60" t="inlineStr">
         <is>
           <t>Phoenix</t>
         </is>
@@ -5679,10 +5979,15 @@
       <c r="S61" t="n">
         <v>16646</v>
       </c>
-      <c r="T61" t="n">
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>32.8</t>
+        </is>
+      </c>
+      <c r="U61" t="n">
         <v>2013</v>
       </c>
-      <c r="U61" t="inlineStr">
+      <c r="V61" t="inlineStr">
         <is>
           <t>Phoenix</t>
         </is>
@@ -5748,10 +6053,15 @@
       <c r="S62" t="n">
         <v>16907</v>
       </c>
-      <c r="T62" t="n">
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>33.2</t>
+        </is>
+      </c>
+      <c r="U62" t="n">
         <v>2014</v>
       </c>
-      <c r="U62" t="inlineStr">
+      <c r="V62" t="inlineStr">
         <is>
           <t>Phoenix</t>
         </is>
@@ -5817,10 +6127,15 @@
       <c r="S63" t="n">
         <v>20319</v>
       </c>
-      <c r="T63" t="n">
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>33.8</t>
+        </is>
+      </c>
+      <c r="U63" t="n">
         <v>2015</v>
       </c>
-      <c r="U63" t="inlineStr">
+      <c r="V63" t="inlineStr">
         <is>
           <t>Phoenix</t>
         </is>
@@ -5886,10 +6201,15 @@
       <c r="S64" t="n">
         <v>19380</v>
       </c>
-      <c r="T64" t="n">
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>33.4</t>
+        </is>
+      </c>
+      <c r="U64" t="n">
         <v>2016</v>
       </c>
-      <c r="U64" t="inlineStr">
+      <c r="V64" t="inlineStr">
         <is>
           <t>Phoenix</t>
         </is>
@@ -5991,10 +6311,15 @@
           <t>21610</t>
         </is>
       </c>
-      <c r="T65" t="n">
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>33.8</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
         <v>2017</v>
       </c>
-      <c r="U65" t="inlineStr">
+      <c r="V65" t="inlineStr">
         <is>
           <t>Phoenix</t>
         </is>
@@ -6096,10 +6421,15 @@
           <t>19934</t>
         </is>
       </c>
-      <c r="T66" t="n">
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>33.5</t>
+        </is>
+      </c>
+      <c r="U66" t="n">
         <v>2018</v>
       </c>
-      <c r="U66" t="inlineStr">
+      <c r="V66" t="inlineStr">
         <is>
           <t>Phoenix</t>
         </is>
@@ -6201,10 +6531,15 @@
           <t>17505</t>
         </is>
       </c>
-      <c r="T67" t="n">
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>34.4</t>
+        </is>
+      </c>
+      <c r="U67" t="n">
         <v>2019</v>
       </c>
-      <c r="U67" t="inlineStr">
+      <c r="V67" t="inlineStr">
         <is>
           <t>Phoenix</t>
         </is>
@@ -6306,10 +6641,15 @@
           <t>21005</t>
         </is>
       </c>
-      <c r="T68" t="n">
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>33.9</t>
+        </is>
+      </c>
+      <c r="U68" t="n">
         <v>2020</v>
       </c>
-      <c r="U68" t="inlineStr">
+      <c r="V68" t="inlineStr">
         <is>
           <t>Phoenix</t>
         </is>
@@ -6411,10 +6751,15 @@
           <t>18467</t>
         </is>
       </c>
-      <c r="T69" t="n">
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>34.5</t>
+        </is>
+      </c>
+      <c r="U69" t="n">
         <v>2021</v>
       </c>
-      <c r="U69" t="inlineStr">
+      <c r="V69" t="inlineStr">
         <is>
           <t>Phoenix</t>
         </is>
@@ -6516,10 +6861,15 @@
           <t>18820</t>
         </is>
       </c>
-      <c r="T70" t="n">
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>35.1</t>
+        </is>
+      </c>
+      <c r="U70" t="n">
         <v>2022</v>
       </c>
-      <c r="U70" t="inlineStr">
+      <c r="V70" t="inlineStr">
         <is>
           <t>Phoenix</t>
         </is>
@@ -6621,10 +6971,15 @@
           <t>17678</t>
         </is>
       </c>
-      <c r="T71" t="n">
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>34.9</t>
+        </is>
+      </c>
+      <c r="U71" t="n">
         <v>2023</v>
       </c>
-      <c r="U71" t="inlineStr">
+      <c r="V71" t="inlineStr">
         <is>
           <t>Phoenix</t>
         </is>
